--- a/DesignDocument/SkillChart.xlsx
+++ b/DesignDocument/SkillChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FinalTerm\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC7EFE5-BF21-4F2E-ACBF-E5BF131F4401}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF337550-381A-4DD8-AFF4-62A945C3872D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12180" xr2:uid="{A3A2F43F-7E11-4303-BE6B-AACE91F38220}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SPEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,11 +54,22 @@
     <t>스킬 사용가능횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>스킬 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,8 +109,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F065A92-9A88-4211-AB8F-CF4EB66FE0D9}">
-  <dimension ref="B1:I16"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -427,11 +441,12 @@
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="6" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -447,14 +462,20 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2.5</v>
       </c>
@@ -462,91 +483,320 @@
         <v>130</v>
       </c>
       <c r="D2">
-        <f>C2+($I$1*$I$2)</f>
+        <f>C2+($K$1*$K$2)</f>
         <v>190</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <f>D2/E2</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="H2" t="s">
+        <v>7.6</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <f>F2+G2+B2</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">C3+($K$1*$K$2)</f>
+        <v>160</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="1">D3/E3</f>
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H16" si="2">F3+G3+B3</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocument/SkillChart.xlsx
+++ b/DesignDocument/SkillChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FinalTerm\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF337550-381A-4DD8-AFF4-62A945C3872D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365056C3-AB4E-49A8-BF35-478FFFD644B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12180" xr2:uid="{A3A2F43F-7E11-4303-BE6B-AACE91F38220}"/>
   </bookViews>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F065A92-9A88-4211-AB8F-CF4EB66FE0D9}">
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,20 +563,26 @@
       <c r="B5">
         <v>2.5</v>
       </c>
+      <c r="C5">
+        <v>240</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">

--- a/DesignDocument/SkillChart.xlsx
+++ b/DesignDocument/SkillChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FinalTerm\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365056C3-AB4E-49A8-BF35-478FFFD644B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E30075-FA07-46B7-B88C-2FF674C779C4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12180" xr2:uid="{A3A2F43F-7E11-4303-BE6B-AACE91F38220}"/>
   </bookViews>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F065A92-9A88-4211-AB8F-CF4EB66FE0D9}">
-  <dimension ref="B1:K16"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,21 +515,21 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="0">C3+($K$1*$K$2)</f>
+        <f t="shared" ref="D3:D15" si="0">C3+($K$1*$K$2)</f>
         <v>160</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F16" si="1">D3/E3</f>
+        <f t="shared" ref="F3:F15" si="1">D3/E3</f>
         <v>4</v>
       </c>
       <c r="G3">
         <v>13</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H16" si="2">F3+G3+B3</f>
+        <f t="shared" ref="H3:H15" si="2">F3+G3+B3</f>
         <v>19.5</v>
       </c>
     </row>
@@ -587,42 +587,54 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>2.5</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
+      <c r="C7">
+        <v>130</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>190</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
       </c>
       <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>20.333333333333332</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -687,7 +699,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -781,26 +793,6 @@
         <v>10</v>
       </c>
       <c r="H15" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>3.5</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
